--- a/service-system/src/main/resources/static/摩擦系数2.xlsx
+++ b/service-system/src/main/resources/static/摩擦系数2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E58496-AA3C-4CAF-80C6-42F6BED69921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240E754B-2BFB-4F35-B36D-E507D58264C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-匝道路面" sheetId="496" r:id="rId1"/>
@@ -590,6 +590,24 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,24 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1124,105 +1124,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1575,114 +1575,99 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D38:E38"/>
@@ -1699,6 +1684,21 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.1023622047244095" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1732,107 +1732,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2185,99 +2185,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -2294,21 +2309,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -2342,107 +2342,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -2795,99 +2795,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -2904,21 +2919,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -2936,7 +2936,7 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2952,107 +2952,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -3405,99 +3405,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -3514,21 +3529,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5504,50 +5504,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
@@ -5957,114 +5957,99 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D38:E38"/>
@@ -6081,6 +6066,21 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.1417322834645669" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -6114,107 +6114,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -6567,99 +6567,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -6676,21 +6691,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90486111111111101" right="0.78680555555555598" top="0.74791666666666701" bottom="1.1416666666666699" header="0.47222222222222199" footer="0.47222222222222199"/>
@@ -6724,107 +6724,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -7177,99 +7177,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -7286,21 +7301,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90486111111111101" right="0.78680555555555598" top="0.74791666666666701" bottom="1.1416666666666699" header="0.47222222222222199" footer="0.47222222222222199"/>
@@ -7334,107 +7334,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -7787,99 +7787,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="D43:E43"/>
@@ -7896,21 +7911,6 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.1023622047244095" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -7944,107 +7944,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -8397,99 +8397,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="D43:E43"/>
@@ -8506,21 +8521,6 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.1417322834645669" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8554,100 +8554,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
@@ -9007,99 +9007,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -9116,21 +9131,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -9164,107 +9164,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -9617,99 +9617,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -9726,21 +9741,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -9774,107 +9774,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
@@ -10227,99 +10227,114 @@
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -10336,21 +10351,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.1416666666666699" header="0.47244094488188998" footer="0.47244094488188998"/>
